--- a/data-set/data.xlsx
+++ b/data-set/data.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +475,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10:53:06</t>
+          <t>10:55:40</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -484,19 +484,6306 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>43.1667</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5328.0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9069.0</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10:57:41</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3.6207</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2937.0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5236.0</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>10:59:43</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>77.66670000000001</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4826.0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2992.0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>11:01:44</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>62.9508</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3879.0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2452.0</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11:04:00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>57.3333</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>4694.0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2800.0</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>11:06:14</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>47.7966</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3970.0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2100.0</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11:08:27</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>80</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4824.0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2992.0</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>11:10:40</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5085</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>6769.0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5911.0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>11:12:53</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7764.0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9763.0</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>11:15:07</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2182.0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1140.0</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11:17:20</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4918</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2272.0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1216.0</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>11:19:34</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5085</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2362.0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1292.0</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>11:21:48</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2362.0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1292.0</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>11:24:02</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>0.3333</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2104.0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1032.0</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>11:26:15</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2104.0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1032.0</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>11:28:28</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.4918</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4376.0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3689.0</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>11:30:42</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>69.1525</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4308.0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2768.0</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>11:32:56</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>73.16670000000001</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3932.0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2292.0</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>11:35:09</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>87.1186</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>4308.0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2768.0</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>11:37:23</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>46.3333</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3318.0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2032.0</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>11:39:37</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>60</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>5469.0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3661.0</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>11:41:50</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>6068.0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4598.0</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>11:44:04</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.4918</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2104.0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1032.0</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>11:46:18</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.3226</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2014.0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>956.0</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>11:48:33</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.4918</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3174.0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4768.0</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>11:50:47</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2952.0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4796.0</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>11:53:00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.4918</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2852.0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3792.0</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>11:55:13</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.4918</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>4508.0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>10801.0</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>11:57:27</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2328.0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1296.0</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>11:59:40</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>43.1667</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>8688.0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8699.0</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>12:01:54</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>13192.0</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>15956.0</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>12:04:07</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>83.72880000000001</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3866.0</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2344.0</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>12:06:20</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>47.6667</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>4773.0</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3525.0</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>12:08:34</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>61.3559</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>4078.0</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2448.0</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>12:10:47</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>64.5902</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3632.0</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2528.0</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>12:13:01</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.3279</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2104.0</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1132.0</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>12:15:15</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2104.0</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1132.0</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>12:17:28</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.4918</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2014.0</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1056.0</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>12:19:41</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>4223.0</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3716.0</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>12:21:55</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2306.0</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1280.0</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>12:24:08</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>4223.0</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3435.0</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>12:26:22</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.4918</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>3322.0</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6085.0</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>12:28:35</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2874.0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3536.0</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>12:30:49</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>45.9322</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>3568.0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2297.0</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>12:33:03</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>85.83329999999999</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>5032.0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3168.0</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>12:35:17</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>47.8333</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>3730.0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4404.0</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>12:37:31</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>59.5082</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>4154.0</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3756.0</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>12:39:44</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>77.6271</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>4454.0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2872.0</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>12:41:58</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>10.6557</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>5329.0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>10947.0</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>12:44:11</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.4918</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2434.0</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2120.0</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>12:46:24</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2272.0</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1116.0</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>12:48:37</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0.4918</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2510.0</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1236.0</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>12:50:51</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.5085</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2182.0</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1160.0</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>12:53:04</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.4918</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>3415.0</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3965.0</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>12:55:18</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2182.0</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2524.0</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>12:57:32</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>2216.0</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1188.0</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>12:59:45</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>3695.0</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2393.0</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>13:01:58</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>85.66670000000001</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>5016.0</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3012.0</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>13:04:12</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>47.0492</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>8241.0</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>8549.0</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>13:06:25</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>57.1667</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>9022.0</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8644.0</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>13:08:39</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>79.661</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>11870.0</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>11545.0</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>13:10:52</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>47.7049</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>10229.0</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>11319.0</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>13:13:05</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0.5085</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>7318.0</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7580.0</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>13:15:19</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0.4918</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>7104.0</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7356.0</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>13:17:32</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0.4918</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>7284.0</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7508.0</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>13:19:45</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>11721.0</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>13203.0</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>13:21:59</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0.5085</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>7104.0</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7360.0</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>13:24:12</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0.4918</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>7474.0</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7576.0</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>13:26:26</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>5948.0</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4900.0</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>13:28:39</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2682.0</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2980.0</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>13:30:53</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>43.3333</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>4068.0</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2180.0</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>13:33:07</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>81.01690000000001</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>5738.0</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6112.0</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>13:35:20</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>46.8333</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>5704.0</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4701.0</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>13:37:33</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>79.1379</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>3552.0</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2200.0</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>13:39:47</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>86</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>5358.0</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6380.0</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>13:42:00</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0.4918</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>6259.0</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6974.0</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>13:44:13</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2684.0</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3248.0</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>13:46:28</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0.3448</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>3062.0</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4252.0</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>13:48:41</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>4354.0</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5761.0</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>13:50:55</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>4447.0</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3763.0</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>13:53:08</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0.6556999999999999</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>4387.0</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4665.0</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>13:55:23</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>3508.0</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6072.0</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>13:57:36</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2950.0</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4896.0</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>13:59:49</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>6310.0</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>10225.0</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>14:02:02</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>74.5902</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>4494.0</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2732.0</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>14:04:16</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>3238.0</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1880.0</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>14:06:29</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>67.33329999999999</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>6476.0</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5186.0</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>14:08:42</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>87.4576</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>4934.0</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3036.0</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>14:10:56</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>49.0164</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>3922.0</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2420.0</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>14:13:10</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0.3279</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2490.0</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1232.0</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>16:19:57</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2848.0</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3420.0</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>16:22:09</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>3951.0</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3518.0</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>16:24:23</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0.5085</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2796.0</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3304.0</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>16:26:38</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>18185.0</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>25163.0</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>16:28:51</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0.6556999999999999</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>10209.0</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>13015.0</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>16:31:07</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>6885.0</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>10213.0</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>16:33:29</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>71.6949</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>3077.0</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2208.0</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>16:35:44</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>97.16670000000001</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>3841.0</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5852.0</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>16:37:59</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>86.8852</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>6585.0</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>11164.0</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>16:40:16</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>3977.0</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4584.0</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>16:42:33</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>73.16670000000001</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>3363.0</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2112.0</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>16:42:43</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>i-04da85ef4ae0979f5</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>46.4407</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>130885926.0</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>379405.0</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>16:44:55</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>3778.0</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2112.0</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>16:45:02</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>i-04da85ef4ae0979f5</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>4238.0</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2646.0</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>16:47:14</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0.4918</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>3897.0</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2525.0</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>16:47:21</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>i-04da85ef4ae0979f5</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2744.0</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1576.0</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>16:49:33</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2272.0</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1140.0</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>16:49:43</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>i-04da85ef4ae0979f5</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2542.0</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1444.0</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>16:52:00</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>i-0861d21055fbd5d73</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Terminated</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>16:52:07</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>i-04da85ef4ae0979f5</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2710.0</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1516.0</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>16:56:29</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>i-04da85ef4ae0979f5</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2520.0</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1364.0</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>16:58:42</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>i-04da85ef4ae0979f5</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>0.4918</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2452.0</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1360.0</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>17:00:56</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>i-04da85ef4ae0979f5</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>0.4918</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2654.0</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1500.0</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>17:03:13</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>i-04da85ef4ae0979f5</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>68.4746</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2659.0</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1252.0</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>17:05:29</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>i-04da85ef4ae0979f5</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>97</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>6102.0</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3825.0</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>17:07:43</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>i-04da85ef4ae0979f5</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>96.33329999999999</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>3677.0</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2312.0</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>17:09:56</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>i-04da85ef4ae0979f5</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>86.5574</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>4774.0</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2960.0</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>17:12:15</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>i-04da85ef4ae0979f5</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>3699.0</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2240.0</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>17:14:33</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>i-04da85ef4ae0979f5</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>0.5085</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>3890.0</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2354.0</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>17:14:41</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>i-085f8e9724a9cc80c</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>43</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2464.0</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1492.0</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>17:16:55</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>i-04da85ef4ae0979f5</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2452.0</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1292.0</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>17:17:02</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>i-085f8e9724a9cc80c</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>0.5085</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>3868.0</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2482.0</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>17:19:15</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>i-04da85ef4ae0979f5</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>0.4918</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2216.0</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1188.0</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>17:19:22</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>i-085f8e9724a9cc80c</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0.4918</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2464.0</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1436.0</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>17:21:34</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>i-04da85ef4ae0979f5</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>0.5085</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>4780.0</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4053.0</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>17:21:43</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>i-085f8e9724a9cc80c</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2374.0</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1416.0</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>17:23:57</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>i-04da85ef4ae0979f5</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>1.6949</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2272.0</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1216.0</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Terminated</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>17:24:05</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>i-085f8e9724a9cc80c</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>0.4918</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2464.0</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1336.0</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>17:28:36</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>i-085f8e9724a9cc80c</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>0.5085</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>5056.0</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4073.0</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>17:30:54</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>i-085f8e9724a9cc80c</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2464.0</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1444.0</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>17:33:21</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>i-085f8e9724a9cc80c</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>75.66670000000001</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>3323.0</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2080.0</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>17:35:42</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>i-085f8e9724a9cc80c</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>4928.0</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2724.0</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>17:38:00</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>i-085f8e9724a9cc80c</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>97.33329999999999</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>3573.0</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2232.0</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>17:40:21</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>i-085f8e9724a9cc80c</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>95.0847</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>3677.0</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2364.0</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>17:42:40</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>i-085f8e9724a9cc80c</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>80.5085</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>4287.0</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2992.0</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>17:42:49</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>i-0c937c9d2ea5d2a9b</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>61.3333</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>2585.0</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1432.0</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>17:45:04</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>i-085f8e9724a9cc80c</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2528.0</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1444.0</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>17:45:13</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>i-0c937c9d2ea5d2a9b</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>0.5085</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>3854.0</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2378.0</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>17:47:24</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>i-085f8e9724a9cc80c</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>3868.0</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2426.0</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>17:47:35</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>i-0c937c9d2ea5d2a9b</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2304.0</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1280.0</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>17:49:57</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>i-085f8e9724a9cc80c</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2394.0</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1588.0</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>17:50:05</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>i-0c937c9d2ea5d2a9b</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>2306.0</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1220.0</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>17:52:28</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>i-085f8e9724a9cc80c</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>1.8033</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>1810.0</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1088.0</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Terminated</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>17:52:38</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>i-0c937c9d2ea5d2a9b</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2632.0</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1420.0</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>17:57:00</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>i-0c937c9d2ea5d2a9b</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2464.0</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1436.0</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>17:59:25</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>i-0c937c9d2ea5d2a9b</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2974.0</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1612.0</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>18:01:40</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>i-0c937c9d2ea5d2a9b</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>0.3279</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>4348.0</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3537.0</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>18:03:54</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>i-0c937c9d2ea5d2a9b</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>0.5085</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>2012.0</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1172.0</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>18:06:09</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>i-0c937c9d2ea5d2a9b</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>74</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>4606.0</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2876.0</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>18:08:23</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>i-0c937c9d2ea5d2a9b</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>97.2131</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>5601.0</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3669.0</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>18:10:38</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>i-0c937c9d2ea5d2a9b</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>89.6721</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>7054.0</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>5424.0</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>18:12:58</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>i-0c937c9d2ea5d2a9b</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>98.64409999999999</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>3331.0</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2056.0</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>18:15:21</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>i-0c937c9d2ea5d2a9b</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>3514.0</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2114.0</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>18:15:29</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>i-0605e3a3f1c0bb750</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>24.3333</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>2306.0</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1505.0</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>18:17:43</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>i-0c937c9d2ea5d2a9b</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>2648.0</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1356.0</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>18:17:51</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>i-0605e3a3f1c0bb750</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>3924.0</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2354.0</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>18:20:06</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>i-0c937c9d2ea5d2a9b</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>2232.0</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1084.0</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>18:20:15</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>i-0605e3a3f1c0bb750</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>0.5085</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>2464.0</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1336.0</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>18:22:32</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>i-0c937c9d2ea5d2a9b</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>1.5254</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>32837.0</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>58060.0</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Terminated</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>18:22:40</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>i-0605e3a3f1c0bb750</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>0.4918</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>2520.0</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1436.0</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>18:27:12</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>i-0605e3a3f1c0bb750</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>2464.0</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1488.0</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>18:29:27</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>i-0605e3a3f1c0bb750</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>2682.0</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1508.0</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>18:31:47</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>i-0605e3a3f1c0bb750</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>4413.0</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4081.0</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>18:34:07</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>i-0605e3a3f1c0bb750</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>65.33329999999999</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>2615.0</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1292.0</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>18:36:27</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>i-0605e3a3f1c0bb750</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>74.83329999999999</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>4271.0</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2572.0</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>18:38:46</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>i-0605e3a3f1c0bb750</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>97.377</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>9206.0</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>10903.0</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>18:41:00</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>i-0605e3a3f1c0bb750</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>89.3443</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>7918.0</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>6977.0</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>18:43:17</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>i-0605e3a3f1c0bb750</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>79.66670000000001</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>11035.0</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>12164.0</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>18:45:38</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>i-0605e3a3f1c0bb750</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>4466.0</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3917.0</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>18:45:46</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>i-0a4074efd78ee2078</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>2744.0</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1632.0</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>18:48:00</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>i-0605e3a3f1c0bb750</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>6180.0</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>5150.0</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>18:48:06</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>i-0a4074efd78ee2078</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>0.5085</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>4620.0</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2906.0</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>18:50:19</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>i-0605e3a3f1c0bb750</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>4021.0</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3714.0</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>18:50:27</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>i-0a4074efd78ee2078</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>2598.0</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1492.0</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>18:52:48</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>i-0605e3a3f1c0bb750</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>3938.0</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3590.0</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>18:52:57</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>i-0a4074efd78ee2078</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>2508.0</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1368.0</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>18:55:21</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>i-0605e3a3f1c0bb750</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>1.8033</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>1936.0</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1044.0</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Terminated</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>18:55:28</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>i-0a4074efd78ee2078</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>0.4918</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>2576.0</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1464.0</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>i-0a4074efd78ee2078</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>2464.0</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1436.0</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>19:02:20</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>i-0a4074efd78ee2078</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>2508.0</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1452.0</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>19:42:17</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>i-0a4074efd78ee2078</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>2250.0</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1236.0</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
         <is>
           <t>Running</t>
         </is>

--- a/data-set/data.xlsx
+++ b/data-set/data.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H379"/>
+  <dimension ref="A1:H381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A360" sqref="A360:XFD360"/>
@@ -11802,6 +11802,66 @@
         </is>
       </c>
     </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2021-04-16T05:19:38Z</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>3324.0</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>2180.0</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>i-0567cbb08247aba69</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2021-04-16T05:21:39Z</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>73.1148</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>3422.0</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>2132.0</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>i-0567cbb08247aba69</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
